--- a/Tests/data1.xlsx
+++ b/Tests/data1.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,14 +410,14 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6">
         <f>H1/D1*C1/B1</f>
-        <v>-2136.3957102885765</v>
+        <v>-713.10643997868669</v>
       </c>
       <c r="B1">
         <v>4.54</v>
       </c>
       <c r="C1">
         <f>-H1/I1</f>
-        <v>3.5665478306576994</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D1" s="1">
         <f>E1*F1*G1</f>
@@ -433,34 +433,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H1" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I1" s="4">
         <f>J1/H1</f>
-        <v>196.26822160714286</v>
+        <v>12</v>
       </c>
       <c r="J1">
         <f>K1*L1</f>
-        <v>-137387.755125</v>
+        <v>-1200</v>
       </c>
       <c r="K1" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L1">
-        <v>183.1836735</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <f t="shared" ref="A2:A18" si="0">H2/D2*C2/B2</f>
-        <v>-2467.2143788592321</v>
+        <v>-815.85163170244743</v>
       </c>
       <c r="B2">
         <v>4.07</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C18" si="1">-H2/I2</f>
-        <v>3.6924259902167877</v>
+        <v>8.5470085470085468</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D18" si="2">E2*F2*G2</f>
@@ -476,34 +476,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H2" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" ref="I2:I18" si="3">J2/H2</f>
-        <v>189.5772594642857</v>
+        <v>11.7</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J18" si="4">K2*L2</f>
-        <v>-132704.08162499999</v>
+        <v>-1170</v>
       </c>
       <c r="K2" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L2">
-        <v>176.93877549999999</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <f t="shared" si="0"/>
-        <v>-2570.8819715278519</v>
+        <v>-917.789720057615</v>
       </c>
       <c r="B3">
         <v>4.1500000000000004</v>
       </c>
       <c r="C3">
         <f t="shared" si="1"/>
-        <v>3.9232026154368107</v>
+        <v>9.8039215686274517</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="2"/>
@@ -519,34 +519,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H3" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="3"/>
-        <v>178.42565592857144</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J3">
         <f t="shared" si="4"/>
-        <v>-124897.95915000001</v>
+        <v>-1020</v>
       </c>
       <c r="K3" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L3">
-        <v>166.53061220000001</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <f t="shared" si="0"/>
-        <v>-2421.8735279601819</v>
+        <v>-823.76650610890533</v>
       </c>
       <c r="B4">
         <v>4.72</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>4.2034313736822977</v>
+        <v>10.008169937338803</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
@@ -562,18 +562,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H4" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="3"/>
-        <v>166.53061220000001</v>
+        <v>9.9918367320000012</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>-116571.42854000001</v>
+        <v>-999.18367320000004</v>
       </c>
       <c r="K4" s="5">
-        <v>-700</v>
+        <v>-6</v>
       </c>
       <c r="L4">
         <v>166.53061220000001</v>
@@ -582,14 +582,14 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <f t="shared" si="0"/>
-        <v>-2702.4215252889026</v>
+        <v>-919.19099499622519</v>
       </c>
       <c r="B5">
         <v>4.2300000000000004</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>4.2034313736822977</v>
+        <v>10.008169937338803</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
@@ -605,18 +605,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H5" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="3"/>
-        <v>166.53061220000001</v>
+        <v>9.9918367320000012</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>-116571.42854000001</v>
+        <v>-999.18367320000004</v>
       </c>
       <c r="K5" s="5">
-        <v>-700</v>
+        <v>-6</v>
       </c>
       <c r="L5">
         <v>166.53061220000001</v>
@@ -625,14 +625,14 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" si="0"/>
-        <v>-3064.6764214402301</v>
+        <v>-1119.9526896145417</v>
       </c>
       <c r="B6">
         <v>3.73</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>4.2034313736822977</v>
+        <v>10.75268817204301</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
@@ -648,34 +648,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H6" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="3"/>
-        <v>166.53061220000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>-116571.42854000001</v>
+        <v>-930</v>
       </c>
       <c r="K6" s="5">
-        <v>-700</v>
+        <v>-6</v>
       </c>
       <c r="L6">
-        <v>166.53061220000001</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
-        <v>-3268.9881815609156</v>
+        <v>-1111.9007420275223</v>
       </c>
       <c r="B7">
         <v>3.73</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>4.4836601301328551</v>
+        <v>10.675381262221084</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
@@ -691,18 +691,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H7" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="3"/>
-        <v>156.12244899999999</v>
+        <v>9.3673469399999991</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>-109285.71429999999</v>
+        <v>-936.73469399999999</v>
       </c>
       <c r="K7" s="5">
-        <v>-700</v>
+        <v>-6</v>
       </c>
       <c r="L7">
         <v>156.12244899999999</v>
@@ -711,14 +711,14 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <f t="shared" si="0"/>
-        <v>-3268.9881815609156</v>
+        <v>-1111.9007420275223</v>
       </c>
       <c r="B8">
         <v>3.73</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>4.4836601301328551</v>
+        <v>10.675381262221084</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
@@ -734,18 +734,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H8" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="3"/>
-        <v>156.12244899999999</v>
+        <v>9.3673469399999991</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>-109285.71429999999</v>
+        <v>-936.73469399999999</v>
       </c>
       <c r="K8" s="5">
-        <v>-700</v>
+        <v>-6</v>
       </c>
       <c r="L8">
         <v>156.12244899999999</v>
@@ -754,14 +754,14 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
-        <v>-3084.0179729930446</v>
+        <v>-1108.927745391085</v>
       </c>
       <c r="B9">
         <v>3.74</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>4.2413001230986467</v>
+        <v>10.675381262221084</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
@@ -777,18 +777,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H9" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="3"/>
-        <v>165.04373179999999</v>
+        <v>9.3673469399999991</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>-115530.61225999999</v>
+        <v>-936.73469399999999</v>
       </c>
       <c r="K9" s="5">
-        <v>-740</v>
+        <v>-6</v>
       </c>
       <c r="L9">
         <v>156.12244899999999</v>
@@ -797,14 +797,14 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
-        <v>-1162.8099118756695</v>
+        <v>-1111.9007420275223</v>
       </c>
       <c r="B10">
         <v>3.73</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>2.0298474945666438</v>
+        <v>10.675381262221084</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
@@ -820,34 +820,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H10" s="5">
-        <v>-550</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="3"/>
-        <v>270.9563164090909</v>
+        <v>9.3673469399999991</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>-149025.974025</v>
+        <v>-936.73469399999999</v>
       </c>
       <c r="K10" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L10">
-        <v>198.7012987</v>
+        <v>156.12244899999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <f t="shared" si="0"/>
-        <v>-3268.9881815609156</v>
+        <v>-1111.9007420275223</v>
       </c>
       <c r="B11">
         <v>3.73</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>4.4836601301328551</v>
+        <v>10.675381262221084</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
@@ -863,18 +863,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H11" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="3"/>
-        <v>156.12244899999999</v>
+        <v>9.3673469399999991</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>-109285.71429999999</v>
+        <v>-936.73469399999999</v>
       </c>
       <c r="K11" s="5">
-        <v>-700</v>
+        <v>-6</v>
       </c>
       <c r="L11">
         <v>156.12244899999999</v>
@@ -883,14 +883,14 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
-        <v>-3064.6764214402301</v>
+        <v>-1119.9526896145417</v>
       </c>
       <c r="B12">
         <v>3.73</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>4.2034313736822977</v>
+        <v>10.75268817204301</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
@@ -906,34 +906,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H12" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="3"/>
-        <v>166.53061220000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>-116571.42854000001</v>
+        <v>-930</v>
       </c>
       <c r="K12" s="5">
-        <v>-700</v>
+        <v>-6</v>
       </c>
       <c r="L12">
-        <v>166.53061220000001</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <f t="shared" si="0"/>
-        <v>-3064.6764214402301</v>
+        <v>-1119.9526896145417</v>
       </c>
       <c r="B13">
         <v>3.73</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>4.2034313736822977</v>
+        <v>10.75268817204301</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
@@ -949,34 +949,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H13" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="3"/>
-        <v>166.53061220000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>-116571.42854000001</v>
+        <v>-930</v>
       </c>
       <c r="K13" s="5">
-        <v>-700</v>
+        <v>-6</v>
       </c>
       <c r="L13">
-        <v>166.53061220000001</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <f t="shared" si="0"/>
-        <v>-3594.7305194880687</v>
+        <v>-1222.6974556081864</v>
       </c>
       <c r="B14">
         <v>3.18</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>4.2034313736822977</v>
+        <v>10.008169937338803</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
@@ -992,18 +992,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H14" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="3"/>
-        <v>166.53061220000001</v>
+        <v>9.9918367320000012</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>-116571.42854000001</v>
+        <v>-999.18367320000004</v>
       </c>
       <c r="K14" s="5">
-        <v>-700</v>
+        <v>-6</v>
       </c>
       <c r="L14">
         <v>166.53061220000001</v>
@@ -1012,14 +1012,14 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
-        <v>-3089.5251491816371</v>
+        <v>-1050.8588942794684</v>
       </c>
       <c r="B15">
         <v>3.7</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>4.2034313736822977</v>
+        <v>10.008169937338803</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
@@ -1035,18 +1035,18 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H15" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="3"/>
-        <v>166.53061220000001</v>
+        <v>9.9918367320000012</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>-116571.42854000001</v>
+        <v>-999.18367320000004</v>
       </c>
       <c r="K15" s="5">
-        <v>-700</v>
+        <v>-6</v>
       </c>
       <c r="L15">
         <v>166.53061220000001</v>
@@ -1055,14 +1055,14 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <f t="shared" si="0"/>
-        <v>-2558.551602359853</v>
+        <v>-913.38785089666726</v>
       </c>
       <c r="B16">
         <v>4.17</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>3.9232026154368107</v>
+        <v>9.8039215686274517</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
@@ -1078,34 +1078,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H16" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="3"/>
-        <v>178.42565592857144</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>-124897.95915000001</v>
+        <v>-1020</v>
       </c>
       <c r="K16" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L16">
-        <v>166.53061220000001</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="0"/>
-        <v>-2164.1298538700594</v>
+        <v>-715.62847867003472</v>
       </c>
       <c r="B17">
         <v>4.6399999999999997</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>3.6924259902167877</v>
+        <v>8.5470085470085468</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
@@ -1121,34 +1121,34 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H17" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="3"/>
-        <v>189.5772594642857</v>
+        <v>11.7</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>-132704.08162499999</v>
+        <v>-1170</v>
       </c>
       <c r="K17" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L17">
-        <v>176.93877549999999</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <f t="shared" si="0"/>
-        <v>-2136.3957102885765</v>
+        <v>-713.10643997868669</v>
       </c>
       <c r="B18">
         <v>4.54</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>3.5665478306576994</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
@@ -1164,21 +1164,21 @@
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="H18" s="5">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="3"/>
-        <v>196.26822160714286</v>
+        <v>12</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>-137387.755125</v>
+        <v>-1200</v>
       </c>
       <c r="K18" s="5">
-        <v>-750</v>
+        <v>-6</v>
       </c>
       <c r="L18">
-        <v>183.1836735</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
